--- a/Git_Repo_Practice.xlsx
+++ b/Git_Repo_Practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash.b.dwivedi\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Practice\Test_Repo_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAAE77F-4D52-4AAD-B8A4-C8E061EAFDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F0532E-E812-4133-A8C4-B3CC777508D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +61,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,15 +344,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -356,7 +363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -365,6 +372,17 @@
       </c>
       <c r="C2">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
